--- a/qa/01.测试用例/任务系统/任务系统/任务系统测试用例.xlsx
+++ b/qa/01.测试用例/任务系统/任务系统/任务系统测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="711" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="17" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="964">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -2816,9 +2816,6 @@
     <t>upequip</t>
   </si>
   <si>
-    <t>shoprefresh</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -3001,10 +2998,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>领取大冒险奖励N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>成功</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -3089,19 +3082,11 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>chapterhard-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>章节id</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
     <t>领取X困难章节的满星奖励</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>chapternormal-x</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
@@ -3207,6 +3192,596 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>进入经验试炼N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行过</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成镶嵌宝石N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>inlaytype-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型数字 | 类型数字</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成镶嵌X类型宝石N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本id | 副本id</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关X副本N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级达到N级</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成普通副本N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>paydiamond</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值钻石N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>petlevel-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有过≥X级的宠物N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>petmix</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成宠物合成N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>petstage-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有过≥X品级的宠物N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成X任务</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>questcycle-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环数字 | 循环数字</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成X循环类任务N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>questtype-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>类数字 | 类数字</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成X类任务N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成商店手动刷新N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成公会bossN次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成公会体力赠送N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入公会N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成公会祈福N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本id</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星通关X副本</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成宝石N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>syntype-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成X类型宝石N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级装备N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级技能N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用钻石N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>usefatigue</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗活力值N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>useitem-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用X物品N个</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试见附录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成副本N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://192.168.199.122/cms/document/玩家统计数据_数据库字段解释.txt</t>
+  </si>
+  <si>
+    <t>所有跟任务相关的操作在数据库中都有对应的字段变化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务已完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮文字显示“领取奖励”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务不可进行</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>无按钮显示，显示文字“时间未到”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭按钮在界面右上角</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务跳转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务跳转功能测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务可进行未完成-配置了跳转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务可进行未完成-未配置跳转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置任务跳转为不同内容，点击【立即前往】按钮，查看跳转结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=合成，2 = 材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=商店，3 = 通天塔商店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=商店，4 = PVP商店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=公会，1 =  公会BOSS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=副本</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到对应阵容选择</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2=合成，1 = 宝石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石合成界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料合成界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=商店，1 = 普通商店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3=商店，2 = 公会商店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会商店界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP商店界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4=商城</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=任务，1 = 剧情分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情任务分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=任务，2 = 日常分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5=任务，3 = 成就分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就任务分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6=抽蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽蛋界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会boss分页，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=公会，2 =  公会任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务界面，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=公会，3 =  公会成员</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会成员列表，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=公会，4 =  公会列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入公会列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=公会，5 =  公会主界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会主界面，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>7=公会，6 =  公会许愿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会许愿界面，如没有公会则跳转加入公会列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8=宠物界面，1 =  拥有宠物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有宠物列表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>8=宠物界面，2 =  收集宠物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集宠物界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>9=章节选择界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节对应难度的副本列表界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10=背包，1 = 宝箱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包宝箱分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10=背包，2 = 消耗品</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包消耗品分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10=背包，3 = 宝石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包宝石分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10=背包，4 = 材料</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包材料分页</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=钻石购买金币</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石购买金币确认框</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12=分解，1 = 装备</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备分解界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12=分解，2 = 宠物</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物分解界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13=活动，1 =  大冒险</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大冒险界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13=活动，2 =  竞技场</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13=活动，3 =  试炼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>13=活动，4 = 通天塔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>选塔界面</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改任务逻辑测试用例格式，补充任务跳转用例</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hzg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>adventure</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取大冒险奖励N次</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/F</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapterhard-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>chapternormal-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>star3-x</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2114</t>
+  </si>
+  <si>
     <r>
       <t>hole</t>
     </r>
@@ -3233,274 +3808,10 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>进入经验试炼N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行过</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成镶嵌宝石N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>inlaytype-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型数字 | 类型数字</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成镶嵌X类型宝石N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>instance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-x</t>
-    </r>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本id | 副本id</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关X副本N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色等级达到N级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成普通副本N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>paydiamond</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值钻石N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>petlevel-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有过≥X级的宠物N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>petmix</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成宠物合成N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>petstage-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有过≥X品级的宠物N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务id</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成X任务</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>questcycle-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>循环数字 | 循环数字</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成X循环类任务N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>questtype-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>类数字 | 类数字</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成X类任务N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成商店手动刷新N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成公会bossN次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成公会体力赠送N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入公会N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成公会祈福N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>star3-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本id</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星通关X副本</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成宝石N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>syntype-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成X类型宝石N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级装备N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级技能N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用钻石N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>usefatigue</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗活力值N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>useitem-x</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用X物品N个</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试见附录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>adventure</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成副本N次</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>svn://192.168.199.122/cms/document/玩家统计数据_数据库字段解释.txt</t>
-  </si>
-  <si>
-    <t>所有跟任务相关的操作在数据库中都有对应的字段变化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务已完成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮文字显示“领取奖励”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务不可进行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>无按钮显示，显示文字“时间未到”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭按钮在界面右上角</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务跳转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务跳转功能测试</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务可进行未完成-配置了跳转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务可进行未完成-未配置跳转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示按钮</t>
+    <t>BG-2115</t>
+  </si>
+  <si>
+    <t>PVP商店还没有</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -3508,292 +3819,54 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2116</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2117</t>
+  </si>
+  <si>
+    <t>BG-2118</t>
+  </si>
+  <si>
+    <t>BG-2119</t>
+  </si>
+  <si>
+    <t>BG-2120</t>
+  </si>
+  <si>
     <t>P</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置任务跳转为不同内容，点击【立即前往】按钮，查看跳转结果</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2=合成，2 = 材料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3=商店，3 = 通天塔商店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3=商店，4 = PVP商店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7=公会，1 =  公会BOSS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=副本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转到对应阵容选择</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2=合成，1 = 宝石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石合成界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料合成界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3=商店，1 = 普通商店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通商店界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>3=商店，2 = 公会商店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会商店界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔商店界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP商店界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>4=商城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5=任务，1 = 剧情分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情任务分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5=任务，2 = 日常分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常任务分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5=任务，3 = 成就分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就任务分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>6=抽蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽蛋界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会boss分页，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7=公会，2 =  公会任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务界面，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7=公会，3 =  公会成员</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会成员列表，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7=公会，4 =  公会列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入公会列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7=公会，5 =  公会主界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会主界面，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>7=公会，6 =  公会许愿</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会许愿界面，如没有公会则跳转加入公会列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>8=宠物界面，1 =  拥有宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有宠物列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>8=宠物界面，2 =  收集宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集宠物界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>9=章节选择界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节对应难度的副本列表界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10=背包，1 = 宝箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包宝箱分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10=背包，2 = 消耗品</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包消耗品分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10=背包，3 = 宝石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包宝石分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10=背包，4 = 材料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包材料分页</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1=钻石购买金币</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石购买金币确认框</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>12=分解，1 = 装备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备分解界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>12=分解，2 = 宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物分解界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>13=活动，1 =  大冒险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>大冒险界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>13=活动，2 =  竞技场</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>13=活动，3 =  试炼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>13=活动，4 = 通天塔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>选塔界面</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改任务逻辑测试用例格式，补充任务跳转用例</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>hzg</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>F</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-2121</t>
+  </si>
+  <si>
+    <t>shoprefresh</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会boss没有</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4655,7 +4728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4938,6 +5011,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4947,7 +5024,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="34"/>
@@ -5093,7 +5178,727 @@
     <cellStyle name="好 2" xfId="84"/>
     <cellStyle name="检查单元格 2" xfId="30"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="231">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6306,204 +7111,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7333,7 +7940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -7406,10 +8013,10 @@
     </row>
     <row r="12" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7791,10 +8398,10 @@
         <v>42415</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>37</v>
@@ -8598,9 +9205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J191" sqref="J191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8625,9 +9232,9 @@
       <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
@@ -8783,13 +9390,13 @@
       <c r="B11" s="94"/>
       <c r="D11" s="94"/>
       <c r="E11" s="61" t="s">
+        <v>728</v>
+      </c>
+      <c r="F11" s="61" t="s">
         <v>729</v>
       </c>
-      <c r="F11" s="61" t="s">
-        <v>730</v>
-      </c>
       <c r="G11" s="61" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H11" s="94"/>
     </row>
@@ -8798,16 +9405,16 @@
       <c r="B12" s="94"/>
       <c r="D12" s="94"/>
       <c r="F12" s="61" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G12" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="H12" s="94" t="s">
         <v>733</v>
       </c>
-      <c r="H12" s="94" t="s">
+      <c r="I12" s="83" t="s">
         <v>734</v>
-      </c>
-      <c r="I12" s="83" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -9639,10 +10246,10 @@
         <v>158</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H68" s="70" t="s">
         <v>424</v>
@@ -9653,7 +10260,7 @@
       <c r="B69" s="70"/>
       <c r="D69" s="70"/>
       <c r="F69" s="61" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G69" s="61" t="s">
         <v>157</v>
@@ -9667,10 +10274,10 @@
       <c r="B70" s="97"/>
       <c r="D70" s="97"/>
       <c r="F70" s="61" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G70" s="61" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="H70" s="97" t="s">
         <v>424</v>
@@ -9681,10 +10288,10 @@
       <c r="B71" s="70"/>
       <c r="D71" s="70"/>
       <c r="F71" s="61" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G71" s="61" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H71" s="70" t="s">
         <v>456</v>
@@ -9704,10 +10311,10 @@
       </c>
       <c r="F72" s="75"/>
       <c r="G72" s="61" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H72" s="97" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.35">
@@ -9718,10 +10325,10 @@
         <v>156</v>
       </c>
       <c r="F73" s="61" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="H73" s="97" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.35">
@@ -9729,10 +10336,10 @@
       <c r="B74" s="70"/>
       <c r="D74" s="70"/>
       <c r="F74" s="61" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H74" s="97" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.35">
@@ -9749,7 +10356,7 @@
         <v>161</v>
       </c>
       <c r="H75" s="97" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.35">
@@ -10382,10 +10989,10 @@
         <v>172</v>
       </c>
       <c r="H120" s="70" t="s">
+        <v>735</v>
+      </c>
+      <c r="I120" s="83" t="s">
         <v>736</v>
-      </c>
-      <c r="I120" s="83" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="121" spans="1:10" s="61" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10979,7 +11586,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="61" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="62"/>
       <c r="B160" s="70"/>
       <c r="D160" s="67"/>
@@ -11223,9 +11830,9 @@
       <c r="F176" s="51"/>
       <c r="H176" s="90"/>
     </row>
-    <row r="177" spans="1:8" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="48" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B177" s="73"/>
       <c r="C177" s="45"/>
@@ -11235,510 +11842,616 @@
       <c r="G177" s="45"/>
       <c r="H177" s="45"/>
     </row>
-    <row r="178" spans="1:8" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" s="59" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="B178" s="69" t="s">
         <v>39</v>
       </c>
       <c r="C178" s="59" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D178" s="69">
         <v>1</v>
       </c>
       <c r="E178" s="59" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F178" s="59" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G178" s="59" t="s">
-        <v>883</v>
-      </c>
-      <c r="H178" s="97"/>
-    </row>
-    <row r="179" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>876</v>
+      </c>
+      <c r="H178" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="69"/>
       <c r="D179" s="69"/>
       <c r="F179" s="59" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G179" s="59" t="s">
-        <v>885</v>
-      </c>
-      <c r="H179" s="97"/>
-    </row>
-    <row r="180" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>878</v>
+      </c>
+      <c r="H179" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="69"/>
       <c r="D180" s="69"/>
       <c r="F180" s="59" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G180" s="59" t="s">
-        <v>886</v>
-      </c>
-      <c r="H180" s="97"/>
-    </row>
-    <row r="181" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>879</v>
+      </c>
+      <c r="H180" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="69"/>
       <c r="D181" s="69"/>
       <c r="F181" s="59" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="G181" s="59" t="s">
-        <v>888</v>
-      </c>
-      <c r="H181" s="97"/>
-    </row>
-    <row r="182" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>881</v>
+      </c>
+      <c r="H181" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="69"/>
       <c r="D182" s="69"/>
       <c r="F182" s="59" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="G182" s="59" t="s">
-        <v>890</v>
-      </c>
-      <c r="H182" s="97"/>
-    </row>
-    <row r="183" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>883</v>
+      </c>
+      <c r="H182" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="69"/>
       <c r="D183" s="69"/>
       <c r="F183" s="59" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="G183" s="59" t="s">
-        <v>891</v>
-      </c>
-      <c r="H183" s="97"/>
-    </row>
-    <row r="184" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>884</v>
+      </c>
+      <c r="H183" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B184" s="69"/>
       <c r="D184" s="69"/>
       <c r="F184" s="59" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="G184" s="59" t="s">
-        <v>892</v>
-      </c>
-      <c r="H184" s="97"/>
-    </row>
-    <row r="185" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>885</v>
+      </c>
+      <c r="H184" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="J184" s="59" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B185" s="69"/>
       <c r="D185" s="69"/>
       <c r="F185" s="59" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="G185" s="59" t="s">
-        <v>894</v>
-      </c>
-      <c r="H185" s="97"/>
-    </row>
-    <row r="186" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>887</v>
+      </c>
+      <c r="H185" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B186" s="69"/>
       <c r="D186" s="69"/>
       <c r="F186" s="59" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="G186" s="59" t="s">
-        <v>896</v>
-      </c>
-      <c r="H186" s="97"/>
-    </row>
-    <row r="187" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.35">
+        <v>889</v>
+      </c>
+      <c r="H186" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B187" s="69"/>
       <c r="D187" s="69"/>
       <c r="F187" s="59" t="s">
+        <v>890</v>
+      </c>
+      <c r="G187" s="59" t="s">
+        <v>891</v>
+      </c>
+      <c r="H187" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F188" s="59" t="s">
+        <v>892</v>
+      </c>
+      <c r="G188" s="59" t="s">
+        <v>893</v>
+      </c>
+      <c r="H188" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F189" s="59" t="s">
+        <v>894</v>
+      </c>
+      <c r="G189" s="59" t="s">
+        <v>895</v>
+      </c>
+      <c r="H189" s="106" t="s">
+        <v>950</v>
+      </c>
+      <c r="I189" s="83" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F190" s="59" t="s">
+        <v>874</v>
+      </c>
+      <c r="G190" s="59" t="s">
+        <v>896</v>
+      </c>
+      <c r="H190" s="106" t="s">
+        <v>951</v>
+      </c>
+      <c r="J190" s="35" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F191" s="59" t="s">
         <v>897</v>
       </c>
-      <c r="G187" s="59" t="s">
+      <c r="G191" s="59" t="s">
         <v>898</v>
       </c>
-      <c r="H187" s="97"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F188" s="59" t="s">
+      <c r="H191" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F192" s="59" t="s">
         <v>899</v>
       </c>
-      <c r="G188" s="59" t="s">
+      <c r="G192" s="59" t="s">
         <v>900</v>
       </c>
-      <c r="H188" s="97"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F189" s="59" t="s">
+      <c r="H192" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F193" s="59" t="s">
         <v>901</v>
       </c>
-      <c r="G189" s="59" t="s">
+      <c r="G193" s="59" t="s">
         <v>902</v>
       </c>
-      <c r="H189" s="97"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F190" s="59" t="s">
-        <v>881</v>
-      </c>
-      <c r="G190" s="59" t="s">
+      <c r="H193" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F194" s="59" t="s">
         <v>903</v>
       </c>
-      <c r="H190" s="97"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F191" s="59" t="s">
+      <c r="G194" s="59" t="s">
         <v>904</v>
       </c>
-      <c r="G191" s="59" t="s">
+      <c r="H194" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="195" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F195" s="59" t="s">
         <v>905</v>
       </c>
-      <c r="H191" s="97"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F192" s="59" t="s">
+      <c r="G195" s="59" t="s">
         <v>906</v>
       </c>
-      <c r="G192" s="59" t="s">
+      <c r="H195" s="106" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="196" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F196" s="59" t="s">
         <v>907</v>
       </c>
-      <c r="H192" s="97"/>
-    </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F193" s="59" t="s">
+      <c r="G196" s="59" t="s">
         <v>908</v>
       </c>
-      <c r="G193" s="59" t="s">
+      <c r="H196" s="106" t="s">
+        <v>953</v>
+      </c>
+      <c r="I196" s="83" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="197" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F197" s="59" t="s">
         <v>909</v>
       </c>
-      <c r="H193" s="97"/>
-    </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F194" s="59" t="s">
+      <c r="G197" s="59" t="s">
         <v>910</v>
       </c>
-      <c r="G194" s="59" t="s">
+      <c r="H197" s="106" t="s">
+        <v>953</v>
+      </c>
+      <c r="I197" s="83" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="198" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F198" s="59" t="s">
         <v>911</v>
       </c>
-      <c r="H194" s="97"/>
-    </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F195" s="59" t="s">
+      <c r="G198" s="59" t="s">
         <v>912</v>
       </c>
-      <c r="G195" s="59" t="s">
+      <c r="H198" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="I198" s="83" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="199" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F199" s="59" t="s">
         <v>913</v>
       </c>
-      <c r="H195" s="97"/>
-    </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F196" s="59" t="s">
+      <c r="G199" s="59" t="s">
         <v>914</v>
       </c>
-      <c r="G196" s="59" t="s">
+      <c r="H199" s="106" t="s">
+        <v>954</v>
+      </c>
+      <c r="I199" s="83" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="200" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F200" s="59" t="s">
         <v>915</v>
       </c>
-      <c r="H196" s="97"/>
-    </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F197" s="59" t="s">
+      <c r="G200" s="59" t="s">
         <v>916</v>
       </c>
-      <c r="G197" s="59" t="s">
+      <c r="H200" s="106" t="s">
+        <v>954</v>
+      </c>
+      <c r="I200" s="83" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="201" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F201" s="59" t="s">
         <v>917</v>
       </c>
-      <c r="H197" s="97"/>
-    </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F198" s="59" t="s">
+      <c r="G201" s="59" t="s">
         <v>918</v>
       </c>
-      <c r="G198" s="59" t="s">
+      <c r="H201" s="106" t="s">
+        <v>954</v>
+      </c>
+      <c r="I201" s="83" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="202" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F202" s="59" t="s">
         <v>919</v>
       </c>
-      <c r="H198" s="97"/>
-    </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F199" s="59" t="s">
+      <c r="G202" s="59" t="s">
         <v>920</v>
       </c>
-      <c r="G199" s="59" t="s">
+      <c r="H202" s="106" t="s">
+        <v>954</v>
+      </c>
+      <c r="I202" s="83" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="203" spans="6:9" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="F203" s="59" t="s">
         <v>921</v>
       </c>
-      <c r="H199" s="97"/>
-    </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F200" s="59" t="s">
+      <c r="G203" s="59" t="s">
         <v>922</v>
       </c>
-      <c r="G200" s="59" t="s">
+      <c r="H203" s="106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="204" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F204" s="59" t="s">
         <v>923</v>
       </c>
-      <c r="H200" s="97"/>
-    </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F201" s="59" t="s">
+      <c r="G204" s="59" t="s">
         <v>924</v>
       </c>
-      <c r="G201" s="59" t="s">
+      <c r="H204" s="106" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="205" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F205" s="59" t="s">
         <v>925</v>
       </c>
-      <c r="H201" s="97"/>
-    </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F202" s="59" t="s">
+      <c r="G205" s="59" t="s">
         <v>926</v>
       </c>
-      <c r="G202" s="59" t="s">
+      <c r="H205" s="106" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="206" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F206" s="59" t="s">
         <v>927</v>
       </c>
-      <c r="H202" s="97"/>
-    </row>
-    <row r="203" spans="6:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="F203" s="59" t="s">
+      <c r="G206" s="59" t="s">
         <v>928</v>
       </c>
-      <c r="G203" s="59" t="s">
+      <c r="H206" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="I206" s="83" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="207" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F207" s="59" t="s">
         <v>929</v>
       </c>
-      <c r="H203" s="97"/>
-    </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F204" s="59" t="s">
+      <c r="G207" s="59" t="s">
         <v>930</v>
       </c>
-      <c r="G204" s="59" t="s">
+      <c r="H207" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="I207" s="83" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="208" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F208" s="59" t="s">
         <v>931</v>
       </c>
-      <c r="H204" s="97"/>
-    </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F205" s="59" t="s">
+      <c r="G208" s="59" t="s">
         <v>932</v>
       </c>
-      <c r="G205" s="59" t="s">
+      <c r="H208" s="106" t="s">
+        <v>953</v>
+      </c>
+      <c r="I208" s="83" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="209" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="F209" s="59" t="s">
         <v>933</v>
       </c>
-      <c r="H205" s="97"/>
-    </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F206" s="59" t="s">
+      <c r="G209" s="59" t="s">
         <v>934</v>
       </c>
-      <c r="G206" s="59" t="s">
-        <v>935</v>
-      </c>
-      <c r="H206" s="97"/>
-    </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F207" s="59" t="s">
-        <v>936</v>
-      </c>
-      <c r="G207" s="59" t="s">
-        <v>937</v>
-      </c>
-      <c r="H207" s="97"/>
-    </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F208" s="59" t="s">
-        <v>938</v>
-      </c>
-      <c r="G208" s="59" t="s">
-        <v>939</v>
-      </c>
-      <c r="H208" s="97"/>
-    </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F209" s="59" t="s">
-        <v>940</v>
-      </c>
-      <c r="G209" s="59" t="s">
-        <v>941</v>
-      </c>
-      <c r="H209" s="97"/>
-    </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="H210" s="97"/>
+      <c r="H209" s="106" t="s">
+        <v>960</v>
+      </c>
+      <c r="I209" s="83" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="210" spans="6:9" x14ac:dyDescent="0.35">
+      <c r="H210" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K1:IS2 A1:B2 H3:IS3 A188:B1048576 H23:IS26 E23:E27 H83:IS85 E2:J2 K127:IS127 H128:IS131 E1:H1 E137:IS137 A138:IS138 E19:IS20 E27:IS27 A150:H150 E22:IS22 E21:H21 J21:IS21 E33:IS40 E28:H28 E29:G32 J28:IS32 E42:IS42 E41:H41 J41:IS41 E43:H43 J43:IS43 A140:IS142 A139:H139 J139:IS139 I86:IS117 H124:IS126 J123:IS123 A144:IS149 A143:H143 J143:IS143 J132:IS133 H134:IS134 H136:IS136 J135:IS135 H136:H137 E76:IS80 J71:IS71 E82:IS82 E81:H81 J81:IS81 A159:IS165 A158:H158 J158:IS158 A151:IS157 A172:J173 A170:H170 A166:J169 A174:G176 I174:J176 A171:G171 J170:J171 E44:IS67 H118:IS119 A19:D137 H4:H28 H121:IS122 H118:H132 J120:IS120 E68:E71 H68:IS70 E72:F72 H76:H85 I178:J178 A178:E178 E73:E74 H33:H71 E75:G75 I72:IS75 A180:E187 C211:IS65500 C188:E209 I180:J187 C210:G210 I188:IS210">
-    <cfRule type="cellIs" dxfId="150" priority="118" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K1:IS2 A1:B2 H3:IS3 A188:B1048576 H23:IS26 E23:E27 H83:IS85 E2:J2 K127:IS127 H128:IS131 E1:H1 E137:IS137 A138:IS138 E19:IS20 E27:IS27 A150:H150 E22:IS22 E21:H21 J21:IS21 E33:IS40 E28:H28 E29:G32 J28:IS32 E42:IS42 E41:H41 J41:IS41 E43:H43 J43:IS43 A140:IS142 A139:H139 J139:IS139 I86:IS117 H124:IS126 J123:IS123 A144:IS149 A143:H143 J143:IS143 J132:IS133 H134:IS134 H136:IS136 J135:IS135 H136:H137 E76:IS80 J71:IS71 E82:IS82 E81:H81 J81:IS81 A159:IS165 A158:H158 J158:IS158 A151:IS157 A172:J173 A170:H170 A166:J169 A174:G176 I174:J176 A171:G171 J170:J171 E44:IS67 H118:IS119 A19:D137 H4:H28 H121:IS122 H118:H132 J120:IS120 E68:E71 H68:IS70 E72:F72 H76:H85 I178:J178 A178:E178 E73:E74 H33:H71 E75:G75 I72:IS75 A180:E187 C211:IS65500 C188:E209 I180:J187 C210:G210 I188:IS188 I190:IS195 J189:IS189 I203:IS205 J196:IS202 I210:IS210 J206:IS209">
+    <cfRule type="cellIs" dxfId="230" priority="120" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="121" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="148" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="126" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="127" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="146" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="128" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="129" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="144" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="94" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="95" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A179:E179 J179 K166:IS176 K178:IS187">
-    <cfRule type="cellIs" dxfId="142" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83">
-    <cfRule type="cellIs" dxfId="140" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="44" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="45" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:G85">
-    <cfRule type="cellIs" dxfId="138" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I150:IS150">
-    <cfRule type="cellIs" dxfId="136" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="40" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="41" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127">
-    <cfRule type="expression" dxfId="134" priority="33">
+    <cfRule type="expression" dxfId="214" priority="35">
       <formula>J127&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H32">
-    <cfRule type="cellIs" dxfId="133" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86:H117">
-    <cfRule type="cellIs" dxfId="131" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H133">
-    <cfRule type="cellIs" dxfId="129" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="127" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174:H176">
-    <cfRule type="cellIs" dxfId="125" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171">
-    <cfRule type="cellIs" dxfId="123" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:G71">
-    <cfRule type="cellIs" dxfId="121" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:G74">
-    <cfRule type="cellIs" dxfId="119" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:H177">
-    <cfRule type="cellIs" dxfId="117" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I177:IS177">
-    <cfRule type="cellIs" dxfId="115" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:F74">
-    <cfRule type="cellIs" dxfId="113" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:H75">
-    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178:G209">
-    <cfRule type="cellIs" dxfId="105" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178:H210">
-    <cfRule type="cellIs" dxfId="103" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11765,11 +12478,23 @@
     <hyperlink ref="I171" r:id="rId20" display="http://192.168.199.122:8880/browse/BG-267"/>
     <hyperlink ref="I12" r:id="rId21" display="http://192.168.199.122:8880/browse/BG-1874"/>
     <hyperlink ref="I120" r:id="rId22" display="http://192.168.199.122:8880/browse/BG-1875"/>
+    <hyperlink ref="I189" r:id="rId23" display="http://192.168.199.122:8880/browse/BG-2116"/>
+    <hyperlink ref="I196" r:id="rId24" display="http://192.168.199.122:8880/browse/BG-2117"/>
+    <hyperlink ref="I197" r:id="rId25" display="http://192.168.199.122:8880/browse/BG-2118"/>
+    <hyperlink ref="I198" r:id="rId26" display="http://192.168.199.122:8880/browse/BG-2119"/>
+    <hyperlink ref="I199" r:id="rId27" display="http://192.168.199.122:8880/browse/BG-2120"/>
+    <hyperlink ref="I200" r:id="rId28" display="http://192.168.199.122:8880/browse/BG-2120"/>
+    <hyperlink ref="I201" r:id="rId29" display="http://192.168.199.122:8880/browse/BG-2120"/>
+    <hyperlink ref="I202" r:id="rId30" display="http://192.168.199.122:8880/browse/BG-2120"/>
+    <hyperlink ref="I206" r:id="rId31" display="http://192.168.199.122:8880/browse/BG-2121"/>
+    <hyperlink ref="I207" r:id="rId32" display="http://192.168.199.122:8880/browse/BG-2121"/>
+    <hyperlink ref="I208" r:id="rId33" display="http://192.168.199.122:8880/browse/BG-2121"/>
+    <hyperlink ref="I209" r:id="rId34" display="http://192.168.199.122:8880/browse/BG-2121"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId35"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -11778,8 +12503,8 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B261" sqref="B261"/>
+      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11804,9 +12529,9 @@
       <c r="C1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
@@ -12519,7 +13244,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="61" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="H53" s="95"/>
     </row>
@@ -12606,7 +13331,7 @@
         <v>477</v>
       </c>
       <c r="H59" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="33" x14ac:dyDescent="0.35">
@@ -12621,7 +13346,7 @@
         <v>477</v>
       </c>
       <c r="H60" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.35">
@@ -12635,7 +13360,7 @@
         <v>477</v>
       </c>
       <c r="H61" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
@@ -12649,7 +13374,7 @@
         <v>476</v>
       </c>
       <c r="H62" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.35">
@@ -12663,7 +13388,7 @@
         <v>477</v>
       </c>
       <c r="H63" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.35">
@@ -12677,7 +13402,7 @@
         <v>477</v>
       </c>
       <c r="H64" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
@@ -12691,7 +13416,7 @@
         <v>477</v>
       </c>
       <c r="H65" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
@@ -12705,7 +13430,7 @@
         <v>477</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
@@ -12719,7 +13444,7 @@
         <v>477</v>
       </c>
       <c r="H67" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
@@ -12733,7 +13458,7 @@
         <v>477</v>
       </c>
       <c r="H68" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
@@ -12747,7 +13472,7 @@
         <v>477</v>
       </c>
       <c r="H69" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
@@ -12761,7 +13486,7 @@
         <v>477</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
@@ -12775,7 +13500,7 @@
         <v>477</v>
       </c>
       <c r="H71" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
@@ -12801,7 +13526,7 @@
         <v>477</v>
       </c>
       <c r="H73" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="33" x14ac:dyDescent="0.35">
@@ -12816,7 +13541,7 @@
         <v>477</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
@@ -12830,7 +13555,7 @@
         <v>476</v>
       </c>
       <c r="H75" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
@@ -12844,7 +13569,7 @@
         <v>477</v>
       </c>
       <c r="H76" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
@@ -12858,7 +13583,7 @@
         <v>477</v>
       </c>
       <c r="H77" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
@@ -12884,7 +13609,7 @@
         <v>477</v>
       </c>
       <c r="H79" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="33" x14ac:dyDescent="0.35">
@@ -12899,7 +13624,7 @@
         <v>477</v>
       </c>
       <c r="H80" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.35">
@@ -12913,7 +13638,7 @@
         <v>477</v>
       </c>
       <c r="H81" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.35">
@@ -12927,7 +13652,7 @@
         <v>477</v>
       </c>
       <c r="H82" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.35">
@@ -12941,7 +13666,7 @@
         <v>477</v>
       </c>
       <c r="H83" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.35">
@@ -12955,7 +13680,7 @@
         <v>477</v>
       </c>
       <c r="H84" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.35">
@@ -12969,7 +13694,7 @@
         <v>476</v>
       </c>
       <c r="H85" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.35">
@@ -12983,7 +13708,7 @@
         <v>477</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.35">
@@ -12997,7 +13722,7 @@
         <v>477</v>
       </c>
       <c r="H87" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.35">
@@ -13011,7 +13736,7 @@
         <v>477</v>
       </c>
       <c r="H88" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.35">
@@ -13025,7 +13750,7 @@
         <v>477</v>
       </c>
       <c r="H89" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.35">
@@ -13039,7 +13764,7 @@
         <v>477</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.35">
@@ -13053,7 +13778,7 @@
         <v>477</v>
       </c>
       <c r="H91" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.35">
@@ -13079,7 +13804,7 @@
         <v>477</v>
       </c>
       <c r="H93" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="33" x14ac:dyDescent="0.35">
@@ -13094,7 +13819,7 @@
         <v>476</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.35">
@@ -13108,7 +13833,7 @@
         <v>476</v>
       </c>
       <c r="H95" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.35">
@@ -13122,7 +13847,7 @@
         <v>477</v>
       </c>
       <c r="H96" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.35">
@@ -13136,7 +13861,7 @@
         <v>476</v>
       </c>
       <c r="H97" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.35">
@@ -13150,7 +13875,7 @@
         <v>477</v>
       </c>
       <c r="H98" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.35">
@@ -13164,7 +13889,7 @@
         <v>477</v>
       </c>
       <c r="H99" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.35">
@@ -13178,7 +13903,7 @@
         <v>477</v>
       </c>
       <c r="H100" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.35">
@@ -13192,7 +13917,7 @@
         <v>477</v>
       </c>
       <c r="H101" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.35">
@@ -13218,7 +13943,7 @@
         <v>477</v>
       </c>
       <c r="H103" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="33" x14ac:dyDescent="0.35">
@@ -13233,7 +13958,7 @@
         <v>477</v>
       </c>
       <c r="H104" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.35">
@@ -13247,7 +13972,7 @@
         <v>477</v>
       </c>
       <c r="H105" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.35">
@@ -13261,7 +13986,7 @@
         <v>477</v>
       </c>
       <c r="H106" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.35">
@@ -13275,7 +14000,7 @@
         <v>477</v>
       </c>
       <c r="H107" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.35">
@@ -13289,7 +14014,7 @@
         <v>476</v>
       </c>
       <c r="H108" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.35">
@@ -13303,7 +14028,7 @@
         <v>476</v>
       </c>
       <c r="H109" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.35">
@@ -13317,7 +14042,7 @@
         <v>477</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.35">
@@ -13331,7 +14056,7 @@
         <v>476</v>
       </c>
       <c r="H111" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.35">
@@ -13357,7 +14082,7 @@
         <v>477</v>
       </c>
       <c r="H113" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="33" x14ac:dyDescent="0.35">
@@ -13373,7 +14098,7 @@
         <v>551</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.35">
@@ -13387,7 +14112,7 @@
         <v>551</v>
       </c>
       <c r="H115" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.35">
@@ -13401,7 +14126,7 @@
         <v>551</v>
       </c>
       <c r="H116" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.35">
@@ -13415,7 +14140,7 @@
         <v>551</v>
       </c>
       <c r="H117" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.35">
@@ -13441,7 +14166,7 @@
         <v>553</v>
       </c>
       <c r="H119" s="85" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.35">
@@ -13655,7 +14380,7 @@
         <v>476</v>
       </c>
       <c r="H134" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.35">
@@ -13669,7 +14394,7 @@
         <v>476</v>
       </c>
       <c r="H135" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.35">
@@ -13683,7 +14408,7 @@
         <v>476</v>
       </c>
       <c r="H136" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.35">
@@ -13697,7 +14422,7 @@
         <v>476</v>
       </c>
       <c r="H137" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.35">
@@ -13712,7 +14437,7 @@
         <v>476</v>
       </c>
       <c r="H138" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.35">
@@ -13726,7 +14451,7 @@
         <v>476</v>
       </c>
       <c r="H139" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.35">
@@ -13740,7 +14465,7 @@
         <v>476</v>
       </c>
       <c r="H140" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.35">
@@ -13754,7 +14479,7 @@
         <v>476</v>
       </c>
       <c r="H141" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.35">
@@ -13769,7 +14494,7 @@
         <v>476</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.35">
@@ -13783,7 +14508,7 @@
         <v>477</v>
       </c>
       <c r="H143" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.35">
@@ -13797,7 +14522,7 @@
         <v>477</v>
       </c>
       <c r="H144" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.35">
@@ -13812,7 +14537,7 @@
         <v>476</v>
       </c>
       <c r="H145" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.35">
@@ -13826,7 +14551,7 @@
         <v>477</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.35">
@@ -13841,7 +14566,7 @@
         <v>477</v>
       </c>
       <c r="H147" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.35">
@@ -13855,7 +14580,7 @@
         <v>476</v>
       </c>
       <c r="H148" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.35">
@@ -13870,7 +14595,7 @@
         <v>558</v>
       </c>
       <c r="H149" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.35">
@@ -13883,7 +14608,7 @@
         <v>559</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.35">
@@ -13896,7 +14621,7 @@
         <v>560</v>
       </c>
       <c r="H151" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.35">
@@ -13909,7 +14634,7 @@
         <v>560</v>
       </c>
       <c r="H152" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.35">
@@ -13924,7 +14649,7 @@
         <v>565</v>
       </c>
       <c r="H153" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.35">
@@ -13937,7 +14662,7 @@
         <v>566</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.35">
@@ -13950,7 +14675,7 @@
         <v>565</v>
       </c>
       <c r="H155" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.35">
@@ -13965,7 +14690,7 @@
         <v>570</v>
       </c>
       <c r="H156" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.35">
@@ -13978,7 +14703,7 @@
         <v>571</v>
       </c>
       <c r="H157" s="85" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.35">
@@ -13993,7 +14718,7 @@
         <v>576</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.35">
@@ -14006,10 +14731,10 @@
         <v>577</v>
       </c>
       <c r="H159" s="85" t="s">
+        <v>750</v>
+      </c>
+      <c r="I159" s="83" t="s">
         <v>751</v>
-      </c>
-      <c r="I159" s="83" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.35">
@@ -14024,7 +14749,7 @@
         <v>581</v>
       </c>
       <c r="H160" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.35">
@@ -14037,7 +14762,7 @@
         <v>582</v>
       </c>
       <c r="H161" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.35">
@@ -14052,7 +14777,7 @@
         <v>587</v>
       </c>
       <c r="H162" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.35">
@@ -14065,7 +14790,7 @@
         <v>588</v>
       </c>
       <c r="H163" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.35">
@@ -14078,7 +14803,7 @@
         <v>577</v>
       </c>
       <c r="H164" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.35">
@@ -14093,7 +14818,7 @@
         <v>593</v>
       </c>
       <c r="H165" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.35">
@@ -14106,7 +14831,7 @@
         <v>594</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.35">
@@ -14119,7 +14844,7 @@
         <v>595</v>
       </c>
       <c r="H167" s="85" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.35">
@@ -14311,7 +15036,7 @@
         <v>599</v>
       </c>
       <c r="H183" s="85" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="184" spans="4:9" x14ac:dyDescent="0.35">
@@ -14324,7 +15049,7 @@
         <v>600</v>
       </c>
       <c r="H184" s="85" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="185" spans="4:9" x14ac:dyDescent="0.35">
@@ -14339,10 +15064,10 @@
         <v>600</v>
       </c>
       <c r="H185" s="85" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I185" s="83" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="186" spans="4:9" x14ac:dyDescent="0.35">
@@ -14355,7 +15080,7 @@
         <v>625</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="187" spans="4:9" x14ac:dyDescent="0.35">
@@ -14368,7 +15093,7 @@
         <v>625</v>
       </c>
       <c r="H187" s="85" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="188" spans="4:9" x14ac:dyDescent="0.35">
@@ -14383,7 +15108,7 @@
         <v>599</v>
       </c>
       <c r="H188" s="85" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="189" spans="4:9" x14ac:dyDescent="0.35">
@@ -14396,7 +15121,7 @@
         <v>625</v>
       </c>
       <c r="H189" s="85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="190" spans="4:9" x14ac:dyDescent="0.35">
@@ -14409,7 +15134,7 @@
         <v>599</v>
       </c>
       <c r="H190" s="85" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="191" spans="4:9" x14ac:dyDescent="0.35">
@@ -14459,7 +15184,7 @@
         <v>599</v>
       </c>
       <c r="H194" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.35">
@@ -14472,7 +15197,7 @@
         <v>599</v>
       </c>
       <c r="H195" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.35">
@@ -14487,7 +15212,7 @@
         <v>642</v>
       </c>
       <c r="H196" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.35">
@@ -14500,7 +15225,7 @@
         <v>643</v>
       </c>
       <c r="H197" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="198" spans="4:8" x14ac:dyDescent="0.35">
@@ -14513,7 +15238,7 @@
         <v>617</v>
       </c>
       <c r="H198" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.35">
@@ -14526,7 +15251,7 @@
         <v>643</v>
       </c>
       <c r="H199" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="200" spans="4:8" x14ac:dyDescent="0.35">
@@ -14541,7 +15266,7 @@
         <v>646</v>
       </c>
       <c r="H200" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="201" spans="4:8" x14ac:dyDescent="0.35">
@@ -14554,7 +15279,7 @@
         <v>647</v>
       </c>
       <c r="H201" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.35">
@@ -14567,7 +15292,7 @@
         <v>582</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.35">
@@ -14582,7 +15307,7 @@
         <v>646</v>
       </c>
       <c r="H203" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.35">
@@ -14595,7 +15320,7 @@
         <v>646</v>
       </c>
       <c r="H204" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.35">
@@ -14610,7 +15335,7 @@
         <v>607</v>
       </c>
       <c r="H205" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.35">
@@ -14623,7 +15348,7 @@
         <v>617</v>
       </c>
       <c r="H206" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.35">
@@ -14638,7 +15363,7 @@
         <v>618</v>
       </c>
       <c r="H207" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.35">
@@ -14651,7 +15376,7 @@
         <v>607</v>
       </c>
       <c r="H208" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="209" spans="4:8" x14ac:dyDescent="0.35">
@@ -14664,7 +15389,7 @@
         <v>618</v>
       </c>
       <c r="H209" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="210" spans="4:8" x14ac:dyDescent="0.35">
@@ -14677,7 +15402,7 @@
         <v>618</v>
       </c>
       <c r="H210" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="211" spans="4:8" x14ac:dyDescent="0.35">
@@ -14690,7 +15415,7 @@
         <v>618</v>
       </c>
       <c r="H211" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="212" spans="4:8" x14ac:dyDescent="0.35">
@@ -14703,7 +15428,7 @@
         <v>618</v>
       </c>
       <c r="H212" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213" spans="4:8" x14ac:dyDescent="0.35">
@@ -14716,7 +15441,7 @@
         <v>618</v>
       </c>
       <c r="H213" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="214" spans="4:8" x14ac:dyDescent="0.35">
@@ -14729,7 +15454,7 @@
         <v>618</v>
       </c>
       <c r="H214" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="215" spans="4:8" x14ac:dyDescent="0.35">
@@ -14744,7 +15469,7 @@
         <v>618</v>
       </c>
       <c r="H215" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="216" spans="4:8" x14ac:dyDescent="0.35">
@@ -14757,7 +15482,7 @@
         <v>618</v>
       </c>
       <c r="H216" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="4:8" x14ac:dyDescent="0.35">
@@ -14770,7 +15495,7 @@
         <v>618</v>
       </c>
       <c r="H217" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="218" spans="4:8" x14ac:dyDescent="0.35">
@@ -14783,7 +15508,7 @@
         <v>607</v>
       </c>
       <c r="H218" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="4:8" x14ac:dyDescent="0.35">
@@ -14796,7 +15521,7 @@
         <v>618</v>
       </c>
       <c r="H219" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="220" spans="4:8" x14ac:dyDescent="0.35">
@@ -14809,7 +15534,7 @@
         <v>618</v>
       </c>
       <c r="H220" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="221" spans="4:8" x14ac:dyDescent="0.35">
@@ -14822,7 +15547,7 @@
         <v>618</v>
       </c>
       <c r="H221" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="222" spans="4:8" x14ac:dyDescent="0.35">
@@ -14835,7 +15560,7 @@
         <v>618</v>
       </c>
       <c r="H222" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="223" spans="4:8" x14ac:dyDescent="0.35">
@@ -14850,7 +15575,7 @@
         <v>669</v>
       </c>
       <c r="H223" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="4:8" x14ac:dyDescent="0.35">
@@ -14863,7 +15588,7 @@
         <v>600</v>
       </c>
       <c r="H224" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="225" spans="4:8" x14ac:dyDescent="0.35">
@@ -14935,7 +15660,7 @@
         <v>600</v>
       </c>
       <c r="H230" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="231" spans="4:8" x14ac:dyDescent="0.35">
@@ -14948,7 +15673,7 @@
         <v>600</v>
       </c>
       <c r="H231" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="232" spans="4:8" x14ac:dyDescent="0.35">
@@ -14961,7 +15686,7 @@
         <v>676</v>
       </c>
       <c r="H232" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="233" spans="4:8" x14ac:dyDescent="0.35">
@@ -14974,7 +15699,7 @@
         <v>600</v>
       </c>
       <c r="H233" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="234" spans="4:8" x14ac:dyDescent="0.35">
@@ -14987,7 +15712,7 @@
         <v>600</v>
       </c>
       <c r="H234" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="235" spans="4:8" x14ac:dyDescent="0.35">
@@ -15002,7 +15727,7 @@
         <v>600</v>
       </c>
       <c r="H235" s="85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="4:8" x14ac:dyDescent="0.35">
@@ -15015,7 +15740,7 @@
         <v>600</v>
       </c>
       <c r="H236" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="237" spans="4:8" x14ac:dyDescent="0.35">
@@ -15028,7 +15753,7 @@
         <v>600</v>
       </c>
       <c r="H237" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="238" spans="4:8" x14ac:dyDescent="0.35">
@@ -15041,7 +15766,7 @@
         <v>676</v>
       </c>
       <c r="H238" s="85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="239" spans="4:8" x14ac:dyDescent="0.35">
@@ -15054,7 +15779,7 @@
         <v>600</v>
       </c>
       <c r="H239" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="240" spans="4:8" x14ac:dyDescent="0.35">
@@ -15069,7 +15794,7 @@
         <v>600</v>
       </c>
       <c r="H240" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.35">
@@ -15082,7 +15807,7 @@
         <v>676</v>
       </c>
       <c r="H241" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="242" spans="4:9" x14ac:dyDescent="0.35">
@@ -15095,7 +15820,7 @@
         <v>600</v>
       </c>
       <c r="H242" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="243" spans="4:9" x14ac:dyDescent="0.35">
@@ -15108,7 +15833,7 @@
         <v>600</v>
       </c>
       <c r="H243" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="244" spans="4:9" x14ac:dyDescent="0.35">
@@ -15121,7 +15846,7 @@
         <v>600</v>
       </c>
       <c r="H244" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="245" spans="4:9" x14ac:dyDescent="0.35">
@@ -15136,7 +15861,7 @@
         <v>600</v>
       </c>
       <c r="H245" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="246" spans="4:9" x14ac:dyDescent="0.35">
@@ -15149,7 +15874,7 @@
         <v>676</v>
       </c>
       <c r="H246" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="247" spans="4:9" x14ac:dyDescent="0.35">
@@ -15162,7 +15887,7 @@
         <v>600</v>
       </c>
       <c r="H247" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="248" spans="4:9" x14ac:dyDescent="0.35">
@@ -15175,7 +15900,7 @@
         <v>600</v>
       </c>
       <c r="H248" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="249" spans="4:9" x14ac:dyDescent="0.35">
@@ -15188,7 +15913,7 @@
         <v>600</v>
       </c>
       <c r="H249" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="250" spans="4:9" x14ac:dyDescent="0.35">
@@ -15203,7 +15928,7 @@
         <v>573</v>
       </c>
       <c r="H250" s="85" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="251" spans="4:9" x14ac:dyDescent="0.35">
@@ -15216,7 +15941,7 @@
         <v>689</v>
       </c>
       <c r="H251" s="85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="4:9" x14ac:dyDescent="0.35">
@@ -15231,7 +15956,7 @@
         <v>607</v>
       </c>
       <c r="H252" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="253" spans="4:9" x14ac:dyDescent="0.35">
@@ -15244,7 +15969,7 @@
         <v>689</v>
       </c>
       <c r="H253" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="254" spans="4:9" x14ac:dyDescent="0.35">
@@ -15259,10 +15984,10 @@
         <v>646</v>
       </c>
       <c r="H254" s="85" t="s">
+        <v>748</v>
+      </c>
+      <c r="I254" s="83" t="s">
         <v>749</v>
-      </c>
-      <c r="I254" s="83" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="255" spans="4:9" x14ac:dyDescent="0.35">
@@ -15275,7 +16000,7 @@
         <v>600</v>
       </c>
       <c r="H255" s="85" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="256" spans="4:9" x14ac:dyDescent="0.35">
@@ -15290,7 +16015,7 @@
         <v>669</v>
       </c>
       <c r="H256" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="257" spans="4:8" x14ac:dyDescent="0.35">
@@ -15303,7 +16028,7 @@
         <v>699</v>
       </c>
       <c r="H257" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="258" spans="4:8" x14ac:dyDescent="0.35">
@@ -15318,7 +16043,7 @@
         <v>703</v>
       </c>
       <c r="H258" s="85" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="259" spans="4:8" x14ac:dyDescent="0.35">
@@ -15331,7 +16056,7 @@
         <v>703</v>
       </c>
       <c r="H259" s="85" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -15340,386 +16065,386 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="K1:IS2 A1:B2 H3:IS3 A22:J22 K4:IS22 E2:J2 E1:H1 A4:J6 D28:IS28 A9:J13 A8:G8 J8 C23:H23 J23:IS23 A74:E77 G74:G77 G80:G91 A80:E91 A94:G101 G104:G111 A104:E111 G149 I104:IS111 I94:IS101 I80:IS91 I74:IS77 C120:E154 H118 C235:E240 F235:F239 G235:G240 I54:IS71 H120:IS149 G150:IS152 G153:G154 C155:G155 H153:IS155 C185:H185 J185:IS185 C24:IS27 A23:B52 C29:IS52 C254:H254 J254:IS254 C258:IS65423 C257:H257 J257:IS257 C255:IS256 A120:B1048576 C160:IS184 C186:IS230 C241:G244 C231:G234 H231:IS244 J158:IS159 C158:G158 C159:H159 C245:IS253 C156:IS157 A55:G71 A54 D54:G54 A53:IS53">
-    <cfRule type="cellIs" dxfId="101" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="114" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="115" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="99" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="116" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="117" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="cellIs" dxfId="97" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="118" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="119" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:G3">
-    <cfRule type="cellIs" dxfId="95" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="112" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="113" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:G7 J7 A14:G14 H14:J21 A15:E17 A18:F18 A19:E21">
-    <cfRule type="cellIs" dxfId="93" priority="108" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="108" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="109" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="109" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="91" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="106" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="107" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="107" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="89" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:G16">
-    <cfRule type="cellIs" dxfId="87" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F21">
-    <cfRule type="cellIs" dxfId="85" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:G18">
-    <cfRule type="cellIs" dxfId="83" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="cellIs" dxfId="81" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="79" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:F77">
-    <cfRule type="cellIs" dxfId="77" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:F91">
-    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:F111">
-    <cfRule type="cellIs" dxfId="73" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:G73 I72:IS73">
-    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78:G79 I78:IS79">
-    <cfRule type="cellIs" dxfId="69" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:G93 I92:IS93">
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A102:G103 I102:IS103">
-    <cfRule type="cellIs" dxfId="65" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:G113 I112:IS119 A114:E119 G114:G119">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G120:G121 G123:G127">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G122">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G129:G132">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G133">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134:G137">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138:G141">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142">
-    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G143">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G144">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G147">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G145">
-    <cfRule type="cellIs" dxfId="37" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148">
-    <cfRule type="cellIs" dxfId="35" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F114:F117">
-    <cfRule type="cellIs" dxfId="33" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:F119">
-    <cfRule type="cellIs" dxfId="31" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54:H59">
-    <cfRule type="cellIs" dxfId="29" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H73">
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H79">
-    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H93">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:H103">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104:H113">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15738,10 +16463,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -15752,1170 +16477,1381 @@
     <col min="4" max="4" width="10.75" style="105" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" style="105" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="105" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" style="105" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="106" customWidth="1"/>
     <col min="8" max="8" width="15.375" style="95" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="105" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="106" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="105" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="105"/>
+    <col min="11" max="11" width="11.5" style="105" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="105"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
-        <v>860</v>
-      </c>
+      <c r="A1" s="107" t="s">
+        <v>853</v>
+      </c>
+      <c r="G1" s="105"/>
       <c r="H1" s="105"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109" t="s">
-        <v>861</v>
-      </c>
+      <c r="I1" s="105"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107" t="s">
+        <v>854</v>
+      </c>
+      <c r="G2" s="36"/>
       <c r="H2" s="105"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G3" s="36"/>
       <c r="H3" s="105"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="98" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4" s="102" t="s">
         <v>755</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="D4" s="102" t="s">
         <v>756</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="E4" s="98" t="s">
         <v>757</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="F4" s="99" t="s">
         <v>758</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="G4" s="113" t="s">
+        <v>939</v>
+      </c>
+      <c r="H4" s="99" t="s">
         <v>759</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="99" t="s">
-        <v>760</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>21</v>
+      <c r="I4" s="113" t="s">
+        <v>939</v>
       </c>
       <c r="J4" s="98" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="100" t="s">
-        <v>858</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="111" t="s">
+        <v>937</v>
       </c>
       <c r="C5" s="102"/>
       <c r="D5" s="102" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E5" s="100" t="s">
-        <v>762</v>
+        <v>938</v>
       </c>
       <c r="F5" s="101" t="s">
         <v>706</v>
       </c>
-      <c r="G5" s="101"/>
+      <c r="G5" s="37" t="s">
+        <v>940</v>
+      </c>
       <c r="H5" s="101" t="s">
         <v>706</v>
       </c>
-      <c r="I5" s="101"/>
+      <c r="I5" s="37" t="s">
+        <v>448</v>
+      </c>
       <c r="J5" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="100" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="96"/>
       <c r="D6" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>852</v>
+      </c>
+      <c r="F6" s="101" t="s">
+        <v>763</v>
+      </c>
+      <c r="H6" s="101" t="s">
         <v>764</v>
       </c>
-      <c r="E6" s="100" t="s">
-        <v>859</v>
-      </c>
-      <c r="F6" s="101" t="s">
+      <c r="J6" s="96" t="s">
         <v>765</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="96" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="100" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="102"/>
       <c r="D7" s="102" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E7" s="100" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>765</v>
-      </c>
-      <c r="G7" s="101"/>
+        <v>763</v>
+      </c>
       <c r="H7" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I7" s="101"/>
+        <v>764</v>
+      </c>
       <c r="J7" s="96" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B8" s="100" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C8" s="102"/>
       <c r="D8" s="102" t="s">
+        <v>768</v>
+      </c>
+      <c r="E8" s="100" t="s">
+        <v>769</v>
+      </c>
+      <c r="F8" s="101" t="s">
         <v>770</v>
       </c>
-      <c r="E8" s="100" t="s">
-        <v>771</v>
-      </c>
-      <c r="F8" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G8" s="101"/>
       <c r="H8" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I8" s="101"/>
+        <v>764</v>
+      </c>
       <c r="J8" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="100" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C9" s="102"/>
       <c r="D9" s="102" t="s">
+        <v>760</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>771</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>764</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>764</v>
+      </c>
+      <c r="J9" s="96" t="s">
         <v>761</v>
       </c>
-      <c r="E9" s="100" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="100" t="s">
+        <v>772</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>773</v>
       </c>
-      <c r="F9" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="100" t="s">
+      <c r="D10" s="102" t="s">
+        <v>768</v>
+      </c>
+      <c r="E10" s="100" t="s">
         <v>774</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="F10" s="101"/>
+      <c r="H10" s="101" t="s">
+        <v>764</v>
+      </c>
+      <c r="J10" s="96" t="s">
         <v>775</v>
       </c>
-      <c r="D10" s="102" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>777</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>762</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>778</v>
+      </c>
+      <c r="F11" s="101"/>
+      <c r="H11" s="101" t="s">
         <v>770</v>
       </c>
-      <c r="E10" s="100" t="s">
-        <v>776</v>
-      </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I10" s="101"/>
-      <c r="J10" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="100" t="s">
-        <v>778</v>
-      </c>
-      <c r="C11" s="102" t="s">
+      <c r="J11" s="96" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="D11" s="102" t="s">
-        <v>764</v>
-      </c>
-      <c r="E11" s="100" t="s">
+      <c r="C12" s="102" t="s">
         <v>780</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I11" s="101"/>
-      <c r="J11" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="100" t="s">
+      <c r="D12" s="102" t="s">
+        <v>762</v>
+      </c>
+      <c r="E12" s="100" t="s">
         <v>781</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="F12" s="101"/>
+      <c r="H12" s="101" t="s">
+        <v>770</v>
+      </c>
+      <c r="J12" s="96" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="111" t="s">
+        <v>941</v>
+      </c>
+      <c r="C13" s="102" t="s">
         <v>782</v>
-      </c>
-      <c r="D12" s="102" t="s">
-        <v>764</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>783</v>
-      </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I12" s="101"/>
-      <c r="J12" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="100" t="s">
-        <v>784</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>785</v>
       </c>
       <c r="D13" s="102">
         <v>1</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
       <c r="H13" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I13" s="101"/>
+        <v>770</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>448</v>
+      </c>
       <c r="J13" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
-        <v>787</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="111" t="s">
+        <v>942</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D14" s="102">
         <v>1</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
       <c r="H14" s="101" t="s">
-        <v>765</v>
-      </c>
-      <c r="I14" s="101"/>
+        <v>763</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>943</v>
+      </c>
       <c r="J14" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="100" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C15" s="102"/>
       <c r="D15" s="102" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E15" s="100" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="G15" s="101"/>
+        <v>764</v>
+      </c>
       <c r="H15" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I15" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J15" s="96" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="100" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C16" s="102"/>
       <c r="D16" s="102" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E16" s="100" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
       <c r="H16" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I16" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J16" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="100" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C17" s="102"/>
       <c r="D17" s="102" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E17" s="100" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
       <c r="H17" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I17" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J17" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="100" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="102" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E18" s="100" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F18" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G18" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H18" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I18" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J18" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="100" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="102" t="s">
+        <v>762</v>
+      </c>
+      <c r="E19" s="100" t="s">
+        <v>791</v>
+      </c>
+      <c r="F19" s="101" t="s">
         <v>764</v>
       </c>
-      <c r="E19" s="100" t="s">
-        <v>795</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="G19" s="101"/>
       <c r="H19" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I19" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J19" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="100" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C20" s="96"/>
       <c r="D20" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E20" s="100" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
       <c r="H20" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I20" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J20" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="100" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C21" s="96"/>
       <c r="D21" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="E21" s="100" t="s">
+        <v>794</v>
+      </c>
+      <c r="F21" s="101"/>
+      <c r="H21" s="101" t="s">
         <v>770</v>
       </c>
-      <c r="E21" s="100" t="s">
-        <v>798</v>
-      </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I21" s="101"/>
       <c r="J21" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="100" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C22" s="96"/>
       <c r="D22" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>795</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>770</v>
+      </c>
+      <c r="H22" s="101" t="s">
         <v>764</v>
       </c>
-      <c r="E22" s="100" t="s">
-        <v>799</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I22" s="101"/>
       <c r="J22" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="100" t="s">
-        <v>800</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="111" t="s">
+        <v>796</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D23" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E23" s="100" t="s">
+        <v>797</v>
+      </c>
+      <c r="F23" s="96"/>
+      <c r="H23" s="101" t="s">
         <v>764</v>
       </c>
-      <c r="E23" s="100" t="s">
-        <v>801</v>
-      </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I23" s="101"/>
+      <c r="I23" s="106" t="s">
+        <v>448</v>
+      </c>
       <c r="J23" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C24" s="96"/>
       <c r="D24" s="96">
         <v>1</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F24" s="96"/>
-      <c r="G24" s="102"/>
       <c r="H24" s="96"/>
-      <c r="I24" s="102"/>
       <c r="J24" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="103" t="s">
         <v>707</v>
       </c>
       <c r="C25" s="96"/>
       <c r="D25" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E25" s="103" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F25" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="G25" s="104"/>
+        <v>770</v>
+      </c>
       <c r="H25" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="I25" s="104"/>
+        <v>770</v>
+      </c>
       <c r="J25" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="103" t="s">
-        <v>805</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="112" t="s">
+        <v>801</v>
       </c>
       <c r="C26" s="96"/>
       <c r="D26" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>802</v>
+      </c>
+      <c r="F26" s="101" t="s">
         <v>764</v>
       </c>
-      <c r="E26" s="96" t="s">
-        <v>806</v>
-      </c>
-      <c r="F26" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="106" t="s">
+        <v>455</v>
+      </c>
       <c r="H26" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I26" s="101"/>
+        <v>770</v>
+      </c>
+      <c r="I26" s="106" t="s">
+        <v>455</v>
+      </c>
       <c r="J26" s="96" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="103" t="s">
-        <v>808</v>
+        <v>803</v>
+      </c>
+      <c r="K26" s="83" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="112" t="s">
+        <v>946</v>
       </c>
       <c r="C27" s="96"/>
       <c r="D27" s="96" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G27" s="101"/>
+        <v>770</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>455</v>
+      </c>
       <c r="H27" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I27" s="101"/>
+        <v>770</v>
+      </c>
+      <c r="I27" s="106" t="s">
+        <v>455</v>
+      </c>
       <c r="J27" s="96" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+      <c r="K27" s="83" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="100" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C28" s="96"/>
       <c r="D28" s="96" t="s">
+        <v>806</v>
+      </c>
+      <c r="E28" s="100" t="s">
+        <v>807</v>
+      </c>
+      <c r="F28" s="101"/>
+      <c r="H28" s="101" t="s">
+        <v>770</v>
+      </c>
+      <c r="J28" s="96" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>809</v>
+      </c>
+      <c r="D29" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="E29" s="100" t="s">
+        <v>810</v>
+      </c>
+      <c r="F29" s="101"/>
+      <c r="H29" s="101" t="s">
+        <v>764</v>
+      </c>
+      <c r="J29" s="96" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="103" t="s">
         <v>811</v>
       </c>
-      <c r="E28" s="100" t="s">
+      <c r="C30" s="96" t="s">
         <v>812</v>
       </c>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="100" t="s">
+      <c r="D30" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="E30" s="103" t="s">
         <v>813</v>
       </c>
-      <c r="C29" s="96" t="s">
-        <v>814</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="E29" s="100" t="s">
-        <v>815</v>
-      </c>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I29" s="101"/>
-      <c r="J29" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="103" t="s">
-        <v>816</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>817</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>761</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>818</v>
-      </c>
       <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
       <c r="H30" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="I30" s="104"/>
+        <v>770</v>
+      </c>
       <c r="J30" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="100" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C31" s="96"/>
       <c r="D31" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F31" s="104"/>
-      <c r="G31" s="101"/>
       <c r="H31" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I31" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J31" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="103" t="s">
         <v>705</v>
       </c>
       <c r="C32" s="96"/>
       <c r="D32" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E32" s="103" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F32" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="G32" s="104"/>
+        <v>770</v>
+      </c>
       <c r="H32" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="I32" s="104"/>
+        <v>770</v>
+      </c>
       <c r="J32" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="100" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C33" s="96"/>
       <c r="D33" s="96" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F33" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="G33" s="101"/>
+        <v>764</v>
+      </c>
       <c r="H33" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I33" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J33" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="100" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D34" s="96" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E34" s="100" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
       <c r="H34" s="101" t="s">
         <v>706</v>
       </c>
-      <c r="I34" s="101"/>
       <c r="J34" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="100" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C35" s="102"/>
       <c r="D35" s="102" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E35" s="100" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
       <c r="H35" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I35" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J35" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="100" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
       <c r="H36" s="101" t="s">
         <v>706</v>
       </c>
-      <c r="I36" s="101"/>
       <c r="J36" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="100" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D37" s="102">
         <v>1</v>
       </c>
       <c r="E37" s="100" t="s">
+        <v>827</v>
+      </c>
+      <c r="F37" s="101"/>
+      <c r="H37" s="101" t="s">
+        <v>770</v>
+      </c>
+      <c r="J37" s="96" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="100" t="s">
+        <v>828</v>
+      </c>
+      <c r="C38" s="96" t="s">
+        <v>829</v>
+      </c>
+      <c r="D38" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>830</v>
+      </c>
+      <c r="F38" s="101"/>
+      <c r="H38" s="101" t="s">
+        <v>764</v>
+      </c>
+      <c r="J38" s="96" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="100" t="s">
+        <v>831</v>
+      </c>
+      <c r="C39" s="96" t="s">
         <v>832</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I37" s="101"/>
-      <c r="J37" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="100" t="s">
+      <c r="D39" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E39" s="100" t="s">
         <v>833</v>
       </c>
-      <c r="C38" s="96" t="s">
-        <v>834</v>
-      </c>
-      <c r="D38" s="96" t="s">
-        <v>764</v>
-      </c>
-      <c r="E38" s="100" t="s">
-        <v>835</v>
-      </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101" t="s">
-        <v>766</v>
-      </c>
-      <c r="I38" s="101"/>
-      <c r="J38" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="100" t="s">
-        <v>836</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>837</v>
-      </c>
-      <c r="D39" s="96" t="s">
-        <v>764</v>
-      </c>
-      <c r="E39" s="100" t="s">
-        <v>838</v>
-      </c>
       <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
       <c r="H39" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I39" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J39" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="100" t="s">
-        <v>710</v>
+        <v>962</v>
       </c>
       <c r="C40" s="96"/>
       <c r="D40" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E40" s="100" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F40" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G40" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H40" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I40" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J40" s="96" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="100" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C41" s="102"/>
       <c r="D41" s="102" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E41" s="100" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
       <c r="H41" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I41" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J41" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="100" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C42" s="96"/>
       <c r="D42" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E42" s="100" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F42" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G42" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H42" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I42" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J42" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="100" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C43" s="96"/>
       <c r="D43" s="96" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E43" s="100" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
       <c r="H43" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I43" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J43" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="100" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C44" s="96"/>
       <c r="D44" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E44" s="100" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="F44" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G44" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H44" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I44" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J44" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="100" t="s">
-        <v>844</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="111" t="s">
+        <v>944</v>
       </c>
       <c r="C45" s="96" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="D45" s="96">
         <v>1</v>
       </c>
       <c r="E45" s="100" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F45" s="102"/>
-      <c r="G45" s="101"/>
       <c r="H45" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I45" s="101"/>
+        <v>770</v>
+      </c>
+      <c r="I45" s="106" t="s">
+        <v>455</v>
+      </c>
       <c r="J45" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+      <c r="K45" s="83" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="100" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C46" s="96"/>
       <c r="D46" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F46" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G46" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H46" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I46" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J46" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="100" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D47" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E47" s="100" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
       <c r="H47" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I47" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J47" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="103" t="s">
         <v>709</v>
       </c>
       <c r="C48" s="96"/>
       <c r="D48" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E48" s="103" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F48" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="G48" s="104"/>
+        <v>770</v>
+      </c>
       <c r="H48" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="I48" s="104"/>
+        <v>770</v>
+      </c>
       <c r="J48" s="96" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="103" t="s">
         <v>708</v>
       </c>
       <c r="C49" s="96"/>
       <c r="D49" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E49" s="103" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F49" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="G49" s="104"/>
+        <v>770</v>
+      </c>
       <c r="H49" s="104" t="s">
-        <v>772</v>
-      </c>
-      <c r="I49" s="104"/>
+        <v>770</v>
+      </c>
       <c r="J49" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="100" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C50" s="96"/>
       <c r="D50" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E50" s="100" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F50" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G50" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H50" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I50" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J50" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="100" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C51" s="96"/>
       <c r="D51" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E51" s="100" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F51" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G51" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H51" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I51" s="101"/>
+        <v>770</v>
+      </c>
       <c r="J51" s="96" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="100" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D52" s="96" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F52" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="G52" s="101"/>
+        <v>770</v>
+      </c>
       <c r="H52" s="101" t="s">
         <v>706</v>
       </c>
-      <c r="I52" s="101"/>
       <c r="J52" s="96" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H53:H65431 H1:H3">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G13 G118 G159:G65423 G120:G157 G1:G6 G22:G53">
+    <cfRule type="cellIs" dxfId="83" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G21">
+    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G59">
+    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G60:G73">
+    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74:G79">
+    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="56" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80:G93">
+    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G94:G103">
+    <cfRule type="cellIs" dxfId="67" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G104:G113">
+    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114">
+    <cfRule type="cellIs" dxfId="63" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G115">
+    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G119">
+    <cfRule type="cellIs" dxfId="59" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G116">
+    <cfRule type="cellIs" dxfId="57" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G117">
+    <cfRule type="cellIs" dxfId="55" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G158">
+    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I13 I118 I159:I65423 I120:I157 I22:I25 I1:I3 I5:I6 I28:I53">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I21">
+    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="47" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="45" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I59">
+    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:I73">
+    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I79">
+    <cfRule type="cellIs" dxfId="39" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80:I93">
+    <cfRule type="cellIs" dxfId="37" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94:I103">
+    <cfRule type="cellIs" dxfId="35" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104:I113">
+    <cfRule type="cellIs" dxfId="33" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114">
+    <cfRule type="cellIs" dxfId="31" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I115">
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119">
+    <cfRule type="cellIs" dxfId="27" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I116">
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="cellIs" dxfId="23" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I158">
+    <cfRule type="cellIs" dxfId="21" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="I26:I27">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K45" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-2114"/>
+    <hyperlink ref="K26" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-2115"/>
+    <hyperlink ref="K27" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-2115"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>